--- a/ISRaD_Data/McClung_de_Tapia_2005.xlsx
+++ b/ISRaD_Data/McClung_de_Tapia_2005.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="15280" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="15280" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -2325,15 +2325,6 @@
     <t>frc_14c_sd</t>
   </si>
   <si>
-    <t>frc_frc_modern</t>
-  </si>
-  <si>
-    <t>frc_frc_modern_sigma</t>
-  </si>
-  <si>
-    <t>frc_frc_modern_sd</t>
-  </si>
-  <si>
     <t>frc_mbc_method</t>
   </si>
   <si>
@@ -3401,13 +3392,22 @@
   </si>
   <si>
     <t>Acid-Base-Acid (ABA)</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern_sigma</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern_sd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3432,124 +3432,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color indexed="23"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="62"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="60"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3558,101 +3460,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="19"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3662,108 +3475,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3772,11 +3506,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5676,7 +5419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+    <sheetView topLeftCell="AS1" workbookViewId="0">
       <selection activeCell="AZ4" sqref="AZ4:BA92"/>
     </sheetView>
   </sheetViews>
@@ -8875,11 +8618,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AK1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:73">
+    <row r="1" spans="1:73" ht="52">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8982,122 +8727,122 @@
       <c r="AH1" t="s">
         <v>764</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AL1" t="s">
         <v>765</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>766</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>767</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>768</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>769</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>770</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>771</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>772</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>773</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>774</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>775</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>776</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>777</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>778</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>779</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>780</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>781</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>782</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>783</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>784</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>785</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>786</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>787</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>788</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>789</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>790</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>791</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>792</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>793</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>794</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>795</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>796</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>797</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>798</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>799</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>800</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>801</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>802</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:73">
@@ -9114,40 +8859,40 @@
         <v>413</v>
       </c>
       <c r="E2" t="s">
+        <v>801</v>
+      </c>
+      <c r="F2" t="s">
+        <v>802</v>
+      </c>
+      <c r="G2" t="s">
+        <v>803</v>
+      </c>
+      <c r="H2" t="s">
         <v>804</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>805</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>806</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>807</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>808</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>809</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>810</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>811</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>812</v>
-      </c>
-      <c r="N2" t="s">
-        <v>813</v>
-      </c>
-      <c r="O2" t="s">
-        <v>814</v>
-      </c>
-      <c r="P2" t="s">
-        <v>815</v>
       </c>
       <c r="Q2" t="s">
         <v>276</v>
@@ -9159,28 +8904,28 @@
         <v>278</v>
       </c>
       <c r="U2" t="s">
+        <v>813</v>
+      </c>
+      <c r="V2" t="s">
+        <v>814</v>
+      </c>
+      <c r="W2" t="s">
+        <v>815</v>
+      </c>
+      <c r="X2" t="s">
         <v>816</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>817</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>818</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>819</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>820</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>821</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>822</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>823</v>
       </c>
       <c r="AC2" t="s">
         <v>297</v>
@@ -9192,22 +8937,22 @@
         <v>299</v>
       </c>
       <c r="AF2" t="s">
+        <v>821</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>822</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>823</v>
+      </c>
+      <c r="AI2" t="s">
         <v>824</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>825</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>826</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>827</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>828</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>829</v>
       </c>
       <c r="AL2" t="s">
         <v>461</v>
@@ -9231,7 +8976,7 @@
         <v>470</v>
       </c>
       <c r="AS2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="AT2" t="s">
         <v>472</v>
@@ -9282,7 +9027,7 @@
         <v>488</v>
       </c>
       <c r="BJ2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="BK2" t="s">
         <v>490</v>
@@ -9323,19 +9068,19 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
+        <v>829</v>
+      </c>
+      <c r="G3" t="s">
+        <v>830</v>
+      </c>
+      <c r="H3" t="s">
+        <v>831</v>
+      </c>
+      <c r="I3" t="s">
         <v>832</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>833</v>
-      </c>
-      <c r="H3" t="s">
-        <v>834</v>
-      </c>
-      <c r="I3" t="s">
-        <v>835</v>
-      </c>
-      <c r="M3" t="s">
-        <v>836</v>
       </c>
       <c r="N3" t="s">
         <v>199</v>
@@ -9395,49 +9140,49 @@
         <v>510</v>
       </c>
       <c r="AO3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AP3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AQ3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AR3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AT3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AU3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AV3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AW3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AY3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AZ3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="BA3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="BB3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="BD3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="BE3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="BF3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="BG3" t="s">
         <v>512</v>
@@ -9521,79 +9266,79 @@
         <v>735</v>
       </c>
       <c r="F1" t="s">
+        <v>835</v>
+      </c>
+      <c r="G1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H1" t="s">
+        <v>837</v>
+      </c>
+      <c r="I1" t="s">
         <v>838</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>839</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>840</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>841</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>842</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>843</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>844</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>845</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>846</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>847</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>848</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>849</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>850</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>851</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>852</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>853</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>854</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>855</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>856</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>857</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>858</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>859</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>860</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>861</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -9604,16 +9349,16 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
+        <v>860</v>
+      </c>
+      <c r="D2" t="s">
+        <v>861</v>
+      </c>
+      <c r="E2" t="s">
+        <v>862</v>
+      </c>
+      <c r="F2" t="s">
         <v>863</v>
-      </c>
-      <c r="D2" t="s">
-        <v>864</v>
-      </c>
-      <c r="E2" t="s">
-        <v>865</v>
-      </c>
-      <c r="F2" t="s">
-        <v>866</v>
       </c>
       <c r="G2" t="s">
         <v>419</v>
@@ -9628,28 +9373,28 @@
         <v>278</v>
       </c>
       <c r="K2" t="s">
+        <v>864</v>
+      </c>
+      <c r="N2" t="s">
+        <v>865</v>
+      </c>
+      <c r="O2" t="s">
+        <v>866</v>
+      </c>
+      <c r="P2" t="s">
         <v>867</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>868</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>869</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>870</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>871</v>
-      </c>
-      <c r="R2" t="s">
-        <v>872</v>
-      </c>
-      <c r="T2" t="s">
-        <v>873</v>
-      </c>
-      <c r="U2" t="s">
-        <v>874</v>
       </c>
       <c r="V2" t="s">
         <v>297</v>
@@ -9661,22 +9406,22 @@
         <v>299</v>
       </c>
       <c r="Y2" t="s">
+        <v>872</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>873</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>874</v>
+      </c>
+      <c r="AB2" t="s">
         <v>875</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>876</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>877</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>878</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>879</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -9696,13 +9441,13 @@
         <v>734</v>
       </c>
       <c r="L3" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="M3" t="s">
         <v>201</v>
       </c>
       <c r="P3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="Q3" t="s">
         <v>205</v>
@@ -9747,136 +9492,136 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D1" t="s">
         <v>883</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>884</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>885</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>886</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>887</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>888</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>889</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>890</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>891</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>892</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>893</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>894</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>895</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>896</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>897</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>898</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>899</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>900</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>901</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>902</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>903</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>904</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>905</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>906</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>907</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>908</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>909</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>910</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>911</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>912</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>913</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>914</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>915</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>916</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>917</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>918</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>919</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>920</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>921</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>922</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>923</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>924</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>925</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -9959,7 +9704,7 @@
         <v>329</v>
       </c>
       <c r="AA2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="AB2" t="s">
         <v>696</v>
@@ -9977,22 +9722,22 @@
         <v>705</v>
       </c>
       <c r="AG2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AH2" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="AI2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AJ2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="AK2" t="s">
+        <v>845</v>
+      </c>
+      <c r="AL2" t="s">
         <v>848</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>851</v>
       </c>
       <c r="AM2" t="s">
         <v>738</v>
@@ -10010,732 +9755,732 @@
         <v>744</v>
       </c>
       <c r="AR2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:44">
       <c r="G3" t="s">
+        <v>926</v>
+      </c>
+      <c r="H3" t="s">
+        <v>927</v>
+      </c>
+      <c r="I3" t="s">
+        <v>928</v>
+      </c>
+      <c r="U3" t="s">
+        <v>927</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>804</v>
+      </c>
+      <c r="AO3" t="s">
         <v>929</v>
       </c>
-      <c r="H3" t="s">
+      <c r="AP3" t="s">
         <v>930</v>
-      </c>
-      <c r="I3" t="s">
-        <v>931</v>
-      </c>
-      <c r="U3" t="s">
-        <v>930</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>807</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>932</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B4" t="s">
+        <v>932</v>
+      </c>
+      <c r="C4" t="s">
+        <v>933</v>
+      </c>
+      <c r="D4" t="s">
         <v>934</v>
-      </c>
-      <c r="B4" t="s">
-        <v>935</v>
-      </c>
-      <c r="C4" t="s">
-        <v>936</v>
-      </c>
-      <c r="D4" t="s">
-        <v>937</v>
       </c>
       <c r="E4" t="s">
         <v>220</v>
       </c>
       <c r="F4" t="s">
+        <v>935</v>
+      </c>
+      <c r="G4" t="s">
+        <v>936</v>
+      </c>
+      <c r="H4" t="s">
+        <v>937</v>
+      </c>
+      <c r="I4" t="s">
         <v>938</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>939</v>
-      </c>
-      <c r="H4" t="s">
-        <v>940</v>
-      </c>
-      <c r="I4" t="s">
-        <v>941</v>
-      </c>
-      <c r="J4" t="s">
-        <v>942</v>
       </c>
       <c r="K4" t="s">
         <v>219</v>
       </c>
       <c r="L4" t="s">
+        <v>940</v>
+      </c>
+      <c r="M4" t="s">
+        <v>941</v>
+      </c>
+      <c r="N4" t="s">
+        <v>942</v>
+      </c>
+      <c r="O4" t="s">
         <v>943</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>944</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>945</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
+        <v>933</v>
+      </c>
+      <c r="S4" t="s">
+        <v>933</v>
+      </c>
+      <c r="T4" t="s">
         <v>946</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
         <v>947</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="V4" t="s">
         <v>948</v>
       </c>
-      <c r="R4" t="s">
-        <v>936</v>
-      </c>
-      <c r="S4" t="s">
-        <v>936</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>949</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
+        <v>933</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>933</v>
+      </c>
+      <c r="Z4" t="s">
         <v>950</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AA4" t="s">
         <v>951</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AB4" t="s">
         <v>952</v>
       </c>
-      <c r="X4" t="s">
-        <v>936</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>936</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
+        <v>941</v>
+      </c>
+      <c r="AD4" t="s">
         <v>953</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
+        <v>944</v>
+      </c>
+      <c r="AF4" t="s">
         <v>954</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AG4" t="s">
         <v>955</v>
       </c>
-      <c r="AC4" t="s">
-        <v>944</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AH4" t="s">
+        <v>942</v>
+      </c>
+      <c r="AI4" t="s">
         <v>956</v>
       </c>
-      <c r="AE4" t="s">
-        <v>947</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AJ4" t="s">
         <v>957</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AK4" t="s">
         <v>958</v>
       </c>
-      <c r="AH4" t="s">
-        <v>945</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AL4" t="s">
         <v>959</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" t="s">
         <v>960</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>961</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AO4" t="s">
         <v>962</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AP4" t="s">
         <v>963</v>
       </c>
-      <c r="AN4" t="s">
-        <v>964</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>965</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>966</v>
-      </c>
       <c r="AQ4" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="AR4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" t="s">
+        <v>964</v>
+      </c>
+      <c r="B5" t="s">
+        <v>965</v>
+      </c>
+      <c r="D5" t="s">
+        <v>966</v>
+      </c>
+      <c r="E5" t="s">
         <v>967</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>968</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>969</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>970</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>971</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>972</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>973</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>974</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>975</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>976</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>977</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>978</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>979</v>
       </c>
-      <c r="O5" t="s">
+      <c r="T5" t="s">
         <v>980</v>
       </c>
-      <c r="P5" t="s">
+      <c r="U5" t="s">
         <v>981</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="V5" t="s">
         <v>982</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>983</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AA5" t="s">
         <v>984</v>
       </c>
-      <c r="V5" t="s">
+      <c r="AB5" t="s">
         <v>985</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AC5" t="s">
+        <v>975</v>
+      </c>
+      <c r="AD5" t="s">
         <v>986</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AE5" t="s">
+        <v>978</v>
+      </c>
+      <c r="AF5" t="s">
         <v>987</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AG5" t="s">
         <v>988</v>
       </c>
-      <c r="AC5" t="s">
-        <v>978</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AH5" t="s">
+        <v>976</v>
+      </c>
+      <c r="AI5" t="s">
         <v>989</v>
       </c>
-      <c r="AE5" t="s">
-        <v>981</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AJ5" t="s">
         <v>990</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AK5" t="s">
         <v>991</v>
       </c>
-      <c r="AH5" t="s">
-        <v>979</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AL5" t="s">
         <v>992</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AM5" t="s">
         <v>993</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AN5" t="s">
         <v>994</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AO5" t="s">
         <v>995</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AP5" t="s">
         <v>996</v>
       </c>
-      <c r="AN5" t="s">
-        <v>997</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>998</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>999</v>
-      </c>
       <c r="AR5" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" t="s">
+        <v>997</v>
+      </c>
+      <c r="B6" t="s">
+        <v>998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>999</v>
+      </c>
+      <c r="E6" t="s">
         <v>1000</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>1001</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>1002</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>1003</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>1004</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>1005</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>1006</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>1007</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>1008</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>1009</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>1010</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1011</v>
-      </c>
-      <c r="O6" t="s">
-        <v>1012</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1013</v>
       </c>
       <c r="Q6" t="s">
         <v>734</v>
       </c>
       <c r="T6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="W6" t="s">
         <v>1014</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AA6" t="s">
         <v>1015</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AB6" t="s">
         <v>1016</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AC6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AF6" t="s">
         <v>1017</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AG6" t="s">
         <v>1018</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AH6" t="s">
         <v>1019</v>
       </c>
-      <c r="AC6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AI6" t="s">
         <v>1020</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="s">
         <v>1021</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AN6" t="s">
         <v>1022</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AO6" t="s">
         <v>1023</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>1026</v>
       </c>
       <c r="AP6" t="s">
         <v>36</v>
       </c>
       <c r="AR6" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G7" t="s">
         <v>1027</v>
       </c>
-      <c r="B7" t="s">
+      <c r="H7" t="s">
         <v>1028</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>1029</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" t="s">
         <v>1030</v>
       </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>1031</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>1032</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>1033</v>
       </c>
-      <c r="M7" t="s">
+      <c r="T7" t="s">
         <v>1034</v>
       </c>
-      <c r="N7" t="s">
+      <c r="U7" t="s">
         <v>1035</v>
       </c>
-      <c r="P7" t="s">
+      <c r="V7" t="s">
         <v>1036</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>1037</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AC7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AF7" t="s">
         <v>1038</v>
       </c>
-      <c r="V7" t="s">
+      <c r="AG7" t="s">
         <v>1039</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AI7" t="s">
         <v>1040</v>
       </c>
-      <c r="AC7" t="s">
-        <v>1034</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>1036</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AM7" t="s">
         <v>1041</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AN7" t="s">
         <v>1042</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AO7" t="s">
         <v>1043</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AP7" t="s">
         <v>1044</v>
       </c>
-      <c r="AN7" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>1047</v>
-      </c>
       <c r="AR7" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B8" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="F8" t="s">
         <v>221</v>
       </c>
       <c r="G8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L8" t="s">
         <v>1050</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>1051</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>1052</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
         <v>1053</v>
       </c>
-      <c r="M8" t="s">
+      <c r="T8" t="s">
         <v>1054</v>
       </c>
-      <c r="N8" t="s">
+      <c r="U8" t="s">
         <v>1055</v>
       </c>
-      <c r="P8" t="s">
+      <c r="V8" t="s">
         <v>1056</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AG8" t="s">
         <v>1057</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AM8" t="s">
         <v>1058</v>
       </c>
-      <c r="V8" t="s">
+      <c r="AN8" t="s">
         <v>1059</v>
       </c>
-      <c r="W8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>1056</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AO8" t="s">
         <v>1060</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>1062</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>1063</v>
       </c>
       <c r="AP8" t="s">
         <v>734</v>
       </c>
       <c r="AR8" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G9" t="s">
         <v>1064</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H9" t="s">
         <v>1065</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>1066</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>1067</v>
       </c>
-      <c r="H9" t="s">
+      <c r="M9" t="s">
         <v>1068</v>
       </c>
-      <c r="J9" t="s">
+      <c r="P9" t="s">
         <v>1069</v>
       </c>
-      <c r="L9" t="s">
+      <c r="T9" t="s">
         <v>1070</v>
       </c>
-      <c r="M9" t="s">
+      <c r="U9" t="s">
         <v>1071</v>
       </c>
-      <c r="P9" t="s">
+      <c r="AE9" t="s">
         <v>1072</v>
       </c>
-      <c r="T9" t="s">
+      <c r="AG9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AM9" t="s">
         <v>1073</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AN9" t="s">
         <v>1074</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AO9" t="s">
         <v>1075</v>
       </c>
-      <c r="AG9" t="s">
-        <v>1071</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AP9" t="s">
         <v>1076</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>1077</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="10" spans="1:44">
       <c r="A10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G10" t="s">
         <v>1080</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H10" t="s">
         <v>1081</v>
       </c>
-      <c r="F10" t="s">
+      <c r="U10" t="s">
         <v>1082</v>
       </c>
-      <c r="G10" t="s">
+      <c r="AM10" t="s">
         <v>1083</v>
       </c>
-      <c r="H10" t="s">
+      <c r="AN10" t="s">
         <v>1084</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AO10" t="s">
         <v>1085</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AP10" t="s">
         <v>1086</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="11" spans="1:44">
       <c r="B11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="U11" t="s">
         <v>1090</v>
       </c>
-      <c r="F11" t="s">
+      <c r="AM11" t="s">
         <v>1091</v>
       </c>
-      <c r="H11" t="s">
+      <c r="AN11" t="s">
         <v>1092</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AO11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AP11" t="s">
         <v>1093</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="12" spans="1:44">
       <c r="H12" t="s">
+        <v>1094</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AN12" t="s">
         <v>1097</v>
       </c>
-      <c r="U12" t="s">
+      <c r="AO12" t="s">
         <v>1098</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>1099</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="13" spans="1:44">
       <c r="U13" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AO13" t="s">
         <v>1102</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>1103</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>1104</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="14" spans="1:44">
       <c r="U14" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="AN14" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="AO14" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="15" spans="1:44">
       <c r="U15" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="AN15" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="AO15" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="16" spans="1:44">
       <c r="U16" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="AN16" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="AO16" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="17" spans="40:41">
       <c r="AN17" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="AO17" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="18" spans="40:41">
       <c r="AN18" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="AO18" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="19" spans="40:41">
       <c r="AN19" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="AO19" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="20" spans="40:41">
       <c r="AN20" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="AO20" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="21" spans="40:41">
       <c r="AN21" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
   </sheetData>

--- a/ISRaD_Data/McClung_de_Tapia_2005.xlsx
+++ b/ISRaD_Data/McClung_de_Tapia_2005.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="15280" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="15280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1125">
   <si>
     <t>entry_name</t>
   </si>
@@ -3401,6 +3401,9 @@
   </si>
   <si>
     <t>frc_fraction_modern_sd</t>
+  </si>
+  <si>
+    <t>pro_elevation</t>
   </si>
 </sst>
 </file>
@@ -3502,13 +3505,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3520,10 +3535,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_layer" xfId="3"/>
   </cellStyles>
@@ -3813,7 +3841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
@@ -4006,13 +4036,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4082,16 +4116,16 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4099,16 +4133,16 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4116,16 +4150,16 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4133,16 +4167,16 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4150,33 +4184,33 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
-        <v>114</v>
+      <c r="B9" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4184,13 +4218,13 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -4201,16 +4235,16 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4218,16 +4252,16 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4235,16 +4269,16 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4252,16 +4286,16 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4269,16 +4303,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4286,106 +4320,21 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A4:G21">
-    <sortCondition ref="C4:C21"/>
+    <sortCondition ref="B4:B21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4399,15 +4348,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4430,94 +4384,97 @@
         <v>135</v>
       </c>
       <c r="H1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>137</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>138</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>139</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>140</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>141</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>142</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>143</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>145</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>146</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>147</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>148</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>149</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>150</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>151</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>152</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>153</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>154</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>155</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>156</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>158</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>159</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>160</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>161</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>162</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>163</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4539,95 +4496,95 @@
       <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>168</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>169</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>170</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>171</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>172</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>173</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>174</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>175</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>176</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>177</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>178</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>179</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>180</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>181</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>182</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>183</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>184</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>185</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>186</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>187</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>188</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>189</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>190</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>191</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>192</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>193</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>194</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>195</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4640,44 +4597,41 @@
       <c r="G3" t="s">
         <v>67</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>198</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>199</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>200</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>201</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>202</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>203</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>204</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>201</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>205</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>206</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>207</v>
-      </c>
-      <c r="V3" t="s">
-        <v>208</v>
       </c>
       <c r="W3" t="s">
         <v>208</v>
@@ -4686,123 +4640,163 @@
         <v>208</v>
       </c>
       <c r="Y3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z3" t="s">
         <v>209</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>210</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>211</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>212</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>213</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>214</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>205</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>215</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>216</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>217</v>
       </c>
       <c r="AI3" t="s">
         <v>217</v>
       </c>
       <c r="AJ3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>232</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>123</v>
       </c>
       <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" t="s">
         <v>219</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>221</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>237</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>109</v>
       </c>
       <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" t="s">
         <v>219</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>221</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>231</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
       </c>
       <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
         <v>219</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>221</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
       </c>
       <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" t="s">
         <v>219</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>221</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -4812,277 +4806,409 @@
       <c r="D8" t="s">
         <v>226</v>
       </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
+      </c>
       <c r="H8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" t="s">
         <v>219</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>221</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37">
       <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>233</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
       </c>
       <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
         <v>219</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>221</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>236</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>121</v>
       </c>
       <c r="H10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" t="s">
         <v>219</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>221</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="A11" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>239</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>129</v>
       </c>
       <c r="H11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" t="s">
         <v>219</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>221</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="A12" t="s">
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>234</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
       </c>
       <c r="H12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
         <v>219</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>221</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
       </c>
       <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" t="s">
         <v>219</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>221</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:37">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
       </c>
       <c r="H14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" t="s">
         <v>219</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>221</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:37">
       <c r="A15" t="s">
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>235</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>119</v>
       </c>
       <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s">
         <v>219</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>221</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:37">
       <c r="A16" t="s">
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>234</v>
+        <v>218</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
       </c>
       <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
         <v>219</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>221</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>223</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
       </c>
       <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
         <v>219</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>221</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
       </c>
       <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
         <v>219</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>221</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>230</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>101</v>
       </c>
       <c r="H19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" t="s">
         <v>219</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>221</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>229</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
       </c>
       <c r="H20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" t="s">
         <v>219</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>221</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" t="s">
+        <v>126</v>
       </c>
       <c r="H21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" t="s">
         <v>219</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>221</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>222</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:AK21">
+    <sortCondition ref="B4:B21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
@@ -5419,11 +5545,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT69"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AZ4" sqref="AZ4:BA92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:98">
       <c r="A1" t="s">
@@ -8618,7 +8748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
